--- a/biology/Histoire de la zoologie et de la botanique/Boris_Bykhovski/Boris_Bykhovski.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Boris_Bykhovski/Boris_Bykhovski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boris Ievseïevitch Bykhovski (en russe : Борис Евсеевич Быховский, 14 août 1908 - 26 janvier 1974) était un scientifique et parasitologiste soviétique, spécialiste de parasites de poissons, surtout les Monogènes[1],[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boris Ievseïevitch Bykhovski (en russe : Борис Евсеевич Быховский, 14 août 1908 - 26 janvier 1974) était un scientifique et parasitologiste soviétique, spécialiste de parasites de poissons, surtout les Monogènes.
 Il a été Directeur de l'Institut de Zoologie de l'Académie des Sciences de l'URSS à Saint-Pétersbourg (alors Leningrad) de 1962 à 1974.
-Bykhovski est l'auteur de plus de cent publications scientifiques, en particulier sur la systématique des Monogenea[5]. Il est surtout connu pour sa monographie des Monogènes (1957), qui a été traduite en anglais en 1961[6].
+Bykhovski est l'auteur de plus de cent publications scientifiques, en particulier sur la systématique des Monogenea. Il est surtout connu pour sa monographie des Monogènes (1957), qui a été traduite en anglais en 1961.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1930: Diplôme du Département de Biologie de la Faculté de Physique et Mathématique de l'Université d'État de Leningrad
 1935: Diplôme de candidat en Sciences Biologiques.
@@ -545,7 +559,9 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1929-1935: Laboratoires des maladies des poissons de l'Institut des Pêches de Leningrad;
 1935-1940: Institut de Zoologie de l'Académie des Sciences de l'URSS à Leningrad
@@ -579,7 +595,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1963: Académicien-Secrétaire du Département de Biologie Générale, Académie des Sciences de l'URSS
 1964: Membre de l'Académie des Sciences de l'URSS
@@ -613,7 +631,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les taxons suivant ont été nommés en son honneur. La plupart sont des parasites de poissons. WoRMS
 Famille:
